--- a/conf-core/src/test/resources/dataloader/device-types-success-properties-create.test.xlsx
+++ b/conf-core/src/test/resources/dataloader/device-types-success-properties-create.test.xlsx
@@ -234,11 +234,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -522,9 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -619,30 +617,30 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1"/>
     <row r="9" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -779,6 +777,9 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
+      <c r="F18" s="1">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -837,6 +838,9 @@
       </c>
       <c r="E22" t="s">
         <v>8</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
